--- a/ExcelToJSONConverter/excel/hero.xlsx
+++ b/ExcelToJSONConverter/excel/hero.xlsx
@@ -4,11 +4,12 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="60" windowWidth="16550" windowHeight="7950" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="60" windowWidth="16550" windowHeight="7950" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="1" r:id="rId1"/>
     <sheet name="HeroData" sheetId="3" r:id="rId2"/>
+    <sheet name="EnemyData" sheetId="4" r:id="rId3"/>
   </sheets>
   <calcPr calcId="124519"/>
 </workbook>
@@ -158,8 +159,152 @@
 </comments>
 </file>
 
+<file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>만든 이</author>
+  </authors>
+  <commentList>
+    <comment ref="C1" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>만든 이:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+0 </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t xml:space="preserve">지휘관
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">1 </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t xml:space="preserve">용장
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">2 </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t xml:space="preserve">선봉장
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">3 </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t xml:space="preserve">추격자
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">4 </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t xml:space="preserve">궁장
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">5 </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>책사</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="49">
   <si>
     <t>string</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -350,6 +495,10 @@
   </si>
   <si>
     <t>CHA</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Enemy</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -870,13 +1019,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T8"/>
+  <dimension ref="A1:T9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="A8" sqref="A8"/>
+      <selection pane="bottomRight" activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17"/>
@@ -1301,6 +1450,9 @@
         <v>92</v>
       </c>
     </row>
+    <row r="9" spans="1:20">
+      <c r="A9" s="3"/>
+    </row>
   </sheetData>
   <sortState ref="A3:C41">
     <sortCondition ref="A3"/>
@@ -1310,4 +1462,250 @@
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId1"/>
   <legacyDrawing r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:T8"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="C1" sqref="C1"/>
+      <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
+      <selection pane="bottomRight" activeCell="J5" sqref="J5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="17"/>
+  <cols>
+    <col min="1" max="1" width="11" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="6.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.6640625" style="3" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="6.6640625" style="3" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.33203125" style="3" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="6.6640625" style="3" customWidth="1"/>
+    <col min="7" max="7" width="12.25" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.4140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.4140625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12.08203125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="11" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.58203125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="8.1640625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="21.1640625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="16" max="20" width="6.6640625" style="3" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:20">
+      <c r="A1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="I1" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="J1" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="K1" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="L1" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="M1" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="N1" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="O1" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="2" spans="1:20">
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="1"/>
+      <c r="C2" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="I2" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="J2" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="K2" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="L2" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="M2" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="N2" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="O2" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="P2" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="Q2" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="R2" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="S2" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="T2" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20">
+      <c r="A3" t="s">
+        <v>39</v>
+      </c>
+      <c r="B3" t="s">
+        <v>40</v>
+      </c>
+      <c r="C3" s="3">
+        <v>0</v>
+      </c>
+      <c r="E3" s="3">
+        <v>0</v>
+      </c>
+      <c r="G3">
+        <v>50</v>
+      </c>
+      <c r="H3" s="3">
+        <v>1000</v>
+      </c>
+      <c r="I3" s="3">
+        <v>9</v>
+      </c>
+      <c r="J3" s="3">
+        <v>1.5</v>
+      </c>
+      <c r="K3" s="3">
+        <v>0</v>
+      </c>
+      <c r="L3" s="3">
+        <v>1.5</v>
+      </c>
+      <c r="M3" s="3">
+        <v>0</v>
+      </c>
+      <c r="N3" s="3">
+        <v>1</v>
+      </c>
+      <c r="O3" s="3">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20">
+      <c r="A4" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="B4" s="3"/>
+      <c r="C4" s="3">
+        <v>0</v>
+      </c>
+      <c r="E4" s="3">
+        <v>0</v>
+      </c>
+      <c r="G4">
+        <v>50</v>
+      </c>
+      <c r="H4" s="3">
+        <v>1000</v>
+      </c>
+      <c r="I4" s="3"/>
+      <c r="J4" s="3"/>
+    </row>
+    <row r="5" spans="1:20">
+      <c r="A5" s="3"/>
+      <c r="B5" s="3"/>
+      <c r="H5" s="3"/>
+      <c r="I5" s="3"/>
+      <c r="J5" s="3"/>
+    </row>
+    <row r="6" spans="1:20">
+      <c r="A6" s="3"/>
+      <c r="B6" s="3"/>
+      <c r="H6" s="6"/>
+      <c r="I6" s="6"/>
+      <c r="J6" s="6"/>
+    </row>
+    <row r="7" spans="1:20">
+      <c r="A7" s="3"/>
+      <c r="B7" s="3"/>
+      <c r="H7" s="6"/>
+      <c r="I7" s="6"/>
+      <c r="J7" s="6"/>
+    </row>
+    <row r="8" spans="1:20">
+      <c r="A8" s="3"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
+</worksheet>
 </file>
--- a/ExcelToJSONConverter/excel/hero.xlsx
+++ b/ExcelToJSONConverter/excel/hero.xlsx
@@ -1,27 +1,41 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="29628"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BBE96AB2-DB8B-4015-9B23-B11F2EE8E53F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="60" windowWidth="16550" windowHeight="7950" activeTab="2"/>
+    <workbookView xWindow="3120" yWindow="3120" windowWidth="21600" windowHeight="11295" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="1" r:id="rId1"/>
     <sheet name="HeroData" sheetId="3" r:id="rId2"/>
     <sheet name="EnemyData" sheetId="4" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>만든 이</author>
   </authors>
   <commentList>
-    <comment ref="C1" authorId="0">
+    <comment ref="C1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000001000000}">
       <text>
         <r>
           <rPr>
@@ -160,12 +174,12 @@
 </file>
 
 <file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>만든 이</author>
   </authors>
   <commentList>
-    <comment ref="C1" authorId="0">
+    <comment ref="C1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000001000000}">
       <text>
         <r>
           <rPr>
@@ -304,7 +318,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="50">
   <si>
     <t>string</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -499,14 +513,18 @@
   </si>
   <si>
     <t>Enemy</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>#IP</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="6">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -606,7 +624,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -625,22 +643,27 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 테마">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -678,7 +701,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -712,6 +735,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -746,9 +770,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -921,16 +946,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>10</v>
       </c>
@@ -938,7 +963,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>0</v>
       </c>
@@ -952,7 +977,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="3" spans="1:5">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>1</v>
       </c>
@@ -966,7 +991,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="4" spans="1:5">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>2</v>
       </c>
@@ -980,7 +1005,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="5" spans="1:5">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>3</v>
       </c>
@@ -994,7 +1019,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="6" spans="1:5">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>4</v>
       </c>
@@ -1002,7 +1027,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="7" spans="1:5">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>5</v>
       </c>
@@ -1018,37 +1043,37 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:T9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="G4" sqref="G4"/>
+      <selection pane="bottomRight" activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="11" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="6.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.6640625" style="3" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="6.6640625" style="3" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.33203125" style="3" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="6.6640625" style="3" customWidth="1"/>
+    <col min="2" max="2" width="6.625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.625" style="3" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="6.625" style="3" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.375" style="3" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="6.625" style="3" customWidth="1"/>
     <col min="7" max="7" width="12.25" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.4140625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11.4140625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="12.08203125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12.125" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="11" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.58203125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="8.1640625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="21.1640625" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="12.6640625" bestFit="1" customWidth="1"/>
-    <col min="16" max="20" width="6.6640625" style="3" customWidth="1"/>
+    <col min="12" max="12" width="14.625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="8.125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="21.125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="12.625" bestFit="1" customWidth="1"/>
+    <col min="16" max="20" width="6.625" style="3" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20">
+    <row r="1" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
@@ -1110,7 +1135,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="2" spans="1:20">
+    <row r="2" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -1170,7 +1195,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="3" spans="1:20">
+    <row r="3" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>39</v>
       </c>
@@ -1211,7 +1236,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="4" spans="1:20">
+    <row r="4" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
         <v>3</v>
       </c>
@@ -1254,7 +1279,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="5" spans="1:20">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A5" s="3" t="s">
         <v>4</v>
       </c>
@@ -1303,7 +1328,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="6" spans="1:20">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A6" s="3" t="s">
         <v>5</v>
       </c>
@@ -1352,7 +1377,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="7" spans="1:20">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A7" s="3" t="s">
         <v>6</v>
       </c>
@@ -1376,13 +1401,13 @@
       <c r="G7">
         <v>130</v>
       </c>
-      <c r="H7" s="6">
+      <c r="H7" s="3">
         <v>2500</v>
       </c>
-      <c r="I7" s="6">
+      <c r="I7" s="3">
         <v>11</v>
       </c>
-      <c r="J7" s="6">
+      <c r="J7" s="3">
         <v>0.8</v>
       </c>
       <c r="P7" s="3">
@@ -1401,7 +1426,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="8" spans="1:20">
+    <row r="8" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A8" s="3" t="s">
         <v>7</v>
       </c>
@@ -1425,13 +1450,13 @@
       <c r="G8">
         <v>50</v>
       </c>
-      <c r="H8" s="6">
+      <c r="H8" s="3">
         <v>1700</v>
       </c>
-      <c r="I8" s="6">
+      <c r="I8" s="3">
         <v>8</v>
       </c>
-      <c r="J8" s="6">
+      <c r="J8" s="3">
         <v>1.4</v>
       </c>
       <c r="P8" s="3">
@@ -1450,11 +1475,11 @@
         <v>92</v>
       </c>
     </row>
-    <row r="9" spans="1:20">
+    <row r="9" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A9" s="3"/>
     </row>
   </sheetData>
-  <sortState ref="A3:C41">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A3:C41">
     <sortCondition ref="A3"/>
   </sortState>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -1465,37 +1490,37 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T8"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <dimension ref="A1:U8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="J5" sqref="J5"/>
+      <selection pane="bottomRight" activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="11" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="6.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.6640625" style="3" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="6.6640625" style="3" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.33203125" style="3" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="6.6640625" style="3" customWidth="1"/>
-    <col min="7" max="7" width="12.25" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.4140625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11.4140625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="12.08203125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="11" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.58203125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="8.1640625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="21.1640625" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="12.6640625" bestFit="1" customWidth="1"/>
-    <col min="16" max="20" width="6.6640625" style="3" customWidth="1"/>
+    <col min="2" max="2" width="6.625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.625" style="3" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="6.625" style="3" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.375" style="3" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="6.625" style="3" customWidth="1"/>
+    <col min="8" max="8" width="12.25" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="11.375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="12.125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="11" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="8.125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="21.125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="12.625" bestFit="1" customWidth="1"/>
+    <col min="17" max="21" width="6.625" style="3" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20">
+    <row r="1" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
@@ -1515,49 +1540,52 @@
         <v>2</v>
       </c>
       <c r="G1" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="H1" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="I1" s="4" t="s">
+      <c r="J1" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="J1" s="4" t="s">
+      <c r="K1" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="K1" s="4" t="s">
+      <c r="L1" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="L1" s="4" t="s">
+      <c r="M1" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="M1" s="4" t="s">
+      <c r="N1" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="N1" s="4" t="s">
+      <c r="O1" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="O1" s="4" t="s">
+      <c r="P1" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="Q1" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="R1" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="R1" s="1" t="s">
+      <c r="S1" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="S1" s="1" t="s">
+      <c r="T1" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="T1" s="1" t="s">
+      <c r="U1" s="1" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="2" spans="1:20">
+    <row r="2" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -1574,14 +1602,12 @@
       <c r="F2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="G2" s="2" t="s">
-        <v>9</v>
-      </c>
+      <c r="G2" s="2"/>
       <c r="H2" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="I2" s="5" t="s">
-        <v>0</v>
+      <c r="I2" s="2" t="s">
+        <v>9</v>
       </c>
       <c r="J2" s="5" t="s">
         <v>0</v>
@@ -1601,8 +1627,8 @@
       <c r="O2" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="P2" s="2" t="s">
-        <v>9</v>
+      <c r="P2" s="5" t="s">
+        <v>0</v>
       </c>
       <c r="Q2" s="2" t="s">
         <v>9</v>
@@ -1616,8 +1642,11 @@
       <c r="T2" s="2" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="3" spans="1:20">
+      <c r="U2" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>39</v>
       </c>
@@ -1630,35 +1659,35 @@
       <c r="E3" s="3">
         <v>0</v>
       </c>
-      <c r="G3">
+      <c r="H3">
         <v>50</v>
       </c>
-      <c r="H3" s="3">
+      <c r="I3" s="3">
         <v>1000</v>
       </c>
-      <c r="I3" s="3">
+      <c r="J3" s="3">
         <v>9</v>
       </c>
-      <c r="J3" s="3">
+      <c r="K3" s="3">
         <v>1.5</v>
       </c>
-      <c r="K3" s="3">
-        <v>0</v>
-      </c>
       <c r="L3" s="3">
+        <v>0</v>
+      </c>
+      <c r="M3" s="3">
         <v>1.5</v>
       </c>
-      <c r="M3" s="3">
-        <v>0</v>
-      </c>
       <c r="N3" s="3">
+        <v>0</v>
+      </c>
+      <c r="O3" s="3">
         <v>1</v>
       </c>
-      <c r="O3" s="3">
+      <c r="P3" s="3">
         <v>15</v>
       </c>
     </row>
-    <row r="4" spans="1:20">
+    <row r="4" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
         <v>48</v>
       </c>
@@ -1669,37 +1698,37 @@
       <c r="E4" s="3">
         <v>0</v>
       </c>
-      <c r="G4">
+      <c r="H4">
         <v>50</v>
       </c>
-      <c r="H4" s="3">
+      <c r="I4" s="3">
         <v>1000</v>
       </c>
-      <c r="I4" s="3"/>
       <c r="J4" s="3"/>
-    </row>
-    <row r="5" spans="1:20">
+      <c r="K4" s="3"/>
+    </row>
+    <row r="5" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A5" s="3"/>
       <c r="B5" s="3"/>
-      <c r="H5" s="3"/>
       <c r="I5" s="3"/>
       <c r="J5" s="3"/>
-    </row>
-    <row r="6" spans="1:20">
+      <c r="K5" s="3"/>
+    </row>
+    <row r="6" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A6" s="3"/>
       <c r="B6" s="3"/>
-      <c r="H6" s="6"/>
-      <c r="I6" s="6"/>
-      <c r="J6" s="6"/>
-    </row>
-    <row r="7" spans="1:20">
+      <c r="I6" s="3"/>
+      <c r="J6" s="3"/>
+      <c r="K6" s="3"/>
+    </row>
+    <row r="7" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A7" s="3"/>
       <c r="B7" s="3"/>
-      <c r="H7" s="6"/>
-      <c r="I7" s="6"/>
-      <c r="J7" s="6"/>
-    </row>
-    <row r="8" spans="1:20">
+      <c r="I7" s="3"/>
+      <c r="J7" s="3"/>
+      <c r="K7" s="3"/>
+    </row>
+    <row r="8" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A8" s="3"/>
     </row>
   </sheetData>
